--- a/Automation/reports/TestCase1_report.xlsx
+++ b/Automation/reports/TestCase1_report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Step No</t>
   </si>
@@ -21,18 +21,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Chrome Successfully launched</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Title Matches sucessfully</t>
-  </si>
-  <si>
-    <t>Broswser Quited</t>
   </si>
 </sst>
 </file>
@@ -94,39 +82,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
